--- a/test-cases_equivalence-classes.xlsx
+++ b/test-cases_equivalence-classes.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Видео\Учёба\Yandex.Практикум\1. Проектирование тестов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgen\git\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="11730" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="Пояснение" sheetId="3" r:id="rId1"/>
-    <sheet name="Тест-кейсы логика интерфейса" sheetId="1" r:id="rId2"/>
-    <sheet name="КЭ и ГЗ" sheetId="2" r:id="rId3"/>
+    <sheet name="Тест-кейсы логика интерфейса" sheetId="1" r:id="rId1"/>
+    <sheet name="КЭ и ГЗ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
   <si>
     <t xml:space="preserve"> id тест-кейса</t>
   </si>
@@ -467,15 +466,12 @@
     <t>м. Пироговская, 25
 Зубовский бульвар, 37</t>
   </si>
-  <si>
-    <t>Тестирование логики интерфейса сервиса "Яндекс.Маршруты" с использованием классов эквивалентности на основе выбранных тестовых значений.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -524,15 +520,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,12 +543,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -808,55 +791,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -902,9 +845,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1120,50 +1100,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F137" sqref="F137:F141"/>
     </sheetView>
   </sheetViews>
@@ -1213,2524 +1155,2524 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="19">
+      <c r="A3" s="37"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="19">
+      <c r="A4" s="37"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="19">
+      <c r="A5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="19">
+      <c r="A6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="36">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="19">
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="19">
+      <c r="A9" s="37"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="19">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="19">
+      <c r="A11" s="38"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="36">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="19">
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="19">
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="19">
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="4">
         <v>4</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="19">
+      <c r="A16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="4">
         <v>5</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="36">
         <v>4</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="19">
+      <c r="A18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="19">
+      <c r="A19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="4">
         <v>3</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="19">
+      <c r="A20" s="37"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="4">
         <v>4</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="19">
+      <c r="A21" s="38"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="4">
         <v>5</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="36">
         <v>5</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="19">
+      <c r="A23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="19">
+      <c r="A24" s="37"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="4">
         <v>3</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="19">
+      <c r="A25" s="37"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="4">
         <v>4</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="19">
+      <c r="A26" s="38"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="4">
         <v>5</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="36">
         <v>6</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="19">
+      <c r="A28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="4">
         <v>2</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="19">
+      <c r="A29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="4">
         <v>3</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="19">
+      <c r="A30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="4">
         <v>4</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="19">
+      <c r="A31" s="38"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="4">
         <v>5</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="36">
         <v>7</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="4">
         <v>1</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="19">
+      <c r="A33" s="37"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="4">
         <v>2</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="19">
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="4">
         <v>3</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="19">
+      <c r="A35" s="37"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="4">
         <v>4</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="19">
+      <c r="A36" s="38"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="4">
         <v>5</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="36">
         <v>8</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="4">
         <v>1</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="19">
+      <c r="A38" s="37"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="4">
         <v>2</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="19">
+      <c r="A39" s="37"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="4">
         <v>3</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="19">
+      <c r="A40" s="37"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="4">
         <v>4</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="19">
+      <c r="A41" s="38"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="4">
         <v>5</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="36">
         <v>9</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="4">
         <v>1</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="19">
+      <c r="A43" s="37"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="4">
         <v>2</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="19">
+      <c r="A44" s="37"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="4">
         <v>3</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="19">
+      <c r="A45" s="37"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="4">
         <v>4</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="19">
+      <c r="A46" s="38"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="4">
         <v>5</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="36">
         <v>10</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="4">
         <v>1</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="19">
+      <c r="A48" s="37"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="4">
         <v>2</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="19">
+      <c r="A49" s="37"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="4">
         <v>3</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="19">
+      <c r="A50" s="37"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="4">
         <v>4</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="19">
+      <c r="A51" s="38"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="4">
         <v>5</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="A52" s="36">
         <v>11</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="4">
         <v>1</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="19">
+      <c r="A53" s="37"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="4">
         <v>2</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="19">
+      <c r="A54" s="37"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="4">
         <v>3</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="19">
+      <c r="A55" s="37"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="4">
         <v>4</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="19">
+      <c r="A56" s="38"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="4">
         <v>5</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="36">
         <v>12</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="4">
         <v>1</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="19">
+      <c r="A58" s="37"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="4">
         <v>2</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="19">
+      <c r="A59" s="37"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="4">
         <v>3</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="19">
+      <c r="A60" s="37"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="4">
         <v>4</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="19">
+      <c r="A61" s="38"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="4">
         <v>5</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="A62" s="36">
         <v>13</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="4">
         <v>1</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="19">
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="4">
         <v>2</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="19">
+      <c r="A64" s="37"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="4">
         <v>3</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="19">
+      <c r="A65" s="37"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="4">
         <v>4</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="19">
+      <c r="A66" s="38"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="4">
         <v>5</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+      <c r="A67" s="36">
         <v>14</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="4">
         <v>1</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H67" s="5"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="19">
+      <c r="A68" s="37"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="4">
         <v>2</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="19">
+      <c r="A69" s="37"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="4">
         <v>3</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="19">
+      <c r="A70" s="37"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="4">
         <v>4</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="19">
+      <c r="A71" s="38"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="4">
         <v>5</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
+      <c r="A72" s="36">
         <v>15</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="4">
         <v>1</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="19">
+      <c r="A73" s="37"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="4">
         <v>2</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="19">
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="4">
         <v>3</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="19">
+      <c r="A75" s="37"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="4">
         <v>4</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="19">
+      <c r="A76" s="38"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="4">
         <v>5</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F76" s="22"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
+      <c r="A77" s="36">
         <v>16</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D77" s="4">
         <v>1</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F77" s="20" t="s">
+      <c r="F77" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H77" s="5"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="19">
+      <c r="A78" s="37"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="4">
         <v>2</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="19">
+      <c r="A79" s="37"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="4">
         <v>3</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="19">
+      <c r="A80" s="37"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="4">
         <v>4</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="19">
+      <c r="A81" s="38"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="4">
         <v>5</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F81" s="22"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="52"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
+      <c r="A82" s="36">
         <v>17</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="4">
         <v>1</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F82" s="20" t="s">
+      <c r="F82" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="G82" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H82" s="5"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="53"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="19">
+      <c r="A83" s="37"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="4">
         <v>2</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="19">
+      <c r="A84" s="37"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="4">
         <v>3</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="19">
+      <c r="A85" s="37"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="4">
         <v>4</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="19">
+      <c r="A86" s="38"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="4">
         <v>5</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="52"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7">
+      <c r="A87" s="36">
         <v>18</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="4">
         <v>1</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="F87" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G87" s="13" t="s">
+      <c r="G87" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H87" s="5"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="53"/>
+      <c r="J87" s="53"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="19">
+      <c r="A88" s="37"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="4">
         <v>2</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="19">
+      <c r="A89" s="37"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="4">
         <v>3</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="19">
+      <c r="A90" s="37"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="4">
         <v>4</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="19">
+      <c r="A91" s="38"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="4">
         <v>5</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F91" s="22"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
+      <c r="A92" s="36">
         <v>19</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="4">
         <v>1</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F92" s="20" t="s">
+      <c r="F92" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="G92" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H92" s="5"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="53"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="19">
+      <c r="A93" s="37"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="4">
         <v>2</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F93" s="21"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="19">
+      <c r="A94" s="37"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="4">
         <v>3</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F94" s="21"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="19">
+      <c r="A95" s="37"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="4">
         <v>4</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F95" s="21"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="19">
+      <c r="A96" s="38"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="4">
         <v>5</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F96" s="22"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
+      <c r="A97" s="36">
         <v>20</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="4">
         <v>1</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F97" s="20" t="s">
+      <c r="F97" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G97" s="13" t="s">
+      <c r="G97" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="5"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="53"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="19">
+      <c r="A98" s="37"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="4">
         <v>2</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F98" s="21"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="19">
+      <c r="A99" s="37"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="4">
         <v>3</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F99" s="21"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="19">
+      <c r="A100" s="37"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="4">
         <v>4</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="E100" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F100" s="21"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="19">
+      <c r="A101" s="38"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="4">
         <v>5</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F101" s="22"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="52"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7">
+      <c r="A102" s="36">
         <v>21</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="4">
         <v>1</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F102" s="20" t="s">
+      <c r="F102" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G102" s="13" t="s">
+      <c r="G102" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H102" s="5"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="53"/>
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="19">
+      <c r="A103" s="37"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="4">
         <v>2</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F103" s="21"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="19">
+      <c r="A104" s="37"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="4">
         <v>3</v>
       </c>
-      <c r="E104" s="19" t="s">
+      <c r="E104" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F104" s="21"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="19">
+      <c r="A105" s="37"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="4">
         <v>4</v>
       </c>
-      <c r="E105" s="19" t="s">
+      <c r="E105" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F105" s="21"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="19">
+      <c r="A106" s="38"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="4">
         <v>5</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F106" s="22"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="52"/>
+      <c r="I106" s="52"/>
+      <c r="J106" s="52"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
+      <c r="A107" s="36">
         <v>22</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="4">
         <v>1</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E107" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="F107" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G107" s="13" t="s">
+      <c r="G107" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H107" s="5"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="53"/>
+      <c r="J107" s="53"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="19">
+      <c r="A108" s="37"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="4">
         <v>2</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="E108" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F108" s="21"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="51"/>
+      <c r="J108" s="51"/>
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="19">
+      <c r="A109" s="37"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="4">
         <v>3</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E109" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F109" s="21"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="51"/>
+      <c r="J109" s="51"/>
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="19">
+      <c r="A110" s="37"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="4">
         <v>4</v>
       </c>
-      <c r="E110" s="19" t="s">
+      <c r="E110" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F110" s="21"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="9"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="19">
+      <c r="A111" s="38"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="4">
         <v>5</v>
       </c>
-      <c r="E111" s="19" t="s">
+      <c r="E111" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F111" s="22"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="52"/>
+      <c r="I111" s="52"/>
+      <c r="J111" s="52"/>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7">
+      <c r="A112" s="36">
         <v>23</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D112" s="19">
+      <c r="D112" s="4">
         <v>1</v>
       </c>
-      <c r="E112" s="19" t="s">
+      <c r="E112" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F112" s="20" t="s">
+      <c r="F112" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G112" s="13" t="s">
+      <c r="G112" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H112" s="5"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="53"/>
+      <c r="J112" s="53"/>
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="19">
+      <c r="A113" s="37"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="4">
         <v>2</v>
       </c>
-      <c r="E113" s="19" t="s">
+      <c r="E113" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F113" s="21"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="51"/>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="19">
+      <c r="A114" s="37"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="4">
         <v>3</v>
       </c>
-      <c r="E114" s="19" t="s">
+      <c r="E114" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F114" s="21"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
+      <c r="J114" s="51"/>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="19">
+      <c r="A115" s="37"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="4">
         <v>4</v>
       </c>
-      <c r="E115" s="19" t="s">
+      <c r="E115" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F115" s="21"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="51"/>
+      <c r="J115" s="51"/>
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="9"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="19">
+      <c r="A116" s="38"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="4">
         <v>5</v>
       </c>
-      <c r="E116" s="19" t="s">
+      <c r="E116" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F116" s="22"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="50"/>
+      <c r="H116" s="52"/>
+      <c r="I116" s="52"/>
+      <c r="J116" s="52"/>
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7">
+      <c r="A117" s="36">
         <v>24</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D117" s="19">
+      <c r="D117" s="4">
         <v>1</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="E117" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="F117" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G117" s="13" t="s">
+      <c r="G117" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H117" s="5"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="53"/>
+      <c r="J117" s="53"/>
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="19">
+      <c r="A118" s="37"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="4">
         <v>2</v>
       </c>
-      <c r="E118" s="19" t="s">
+      <c r="E118" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F118" s="21"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="49"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="51"/>
+      <c r="J118" s="51"/>
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="19">
+      <c r="A119" s="37"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="4">
         <v>3</v>
       </c>
-      <c r="E119" s="19" t="s">
+      <c r="E119" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F119" s="21"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="19">
+      <c r="A120" s="37"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="4">
         <v>4</v>
       </c>
-      <c r="E120" s="19" t="s">
+      <c r="E120" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F120" s="21"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="49"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="9"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="19">
+      <c r="A121" s="38"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="4">
         <v>5</v>
       </c>
-      <c r="E121" s="19" t="s">
+      <c r="E121" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F121" s="22"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="52"/>
+      <c r="I121" s="52"/>
+      <c r="J121" s="52"/>
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="7">
+      <c r="A122" s="36">
         <v>25</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D122" s="19">
+      <c r="D122" s="4">
         <v>1</v>
       </c>
-      <c r="E122" s="19" t="s">
+      <c r="E122" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="F122" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G122" s="13" t="s">
+      <c r="G122" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H122" s="5"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="19">
+      <c r="A123" s="37"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="4">
         <v>2</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F123" s="21"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="49"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
+      <c r="J123" s="51"/>
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="19">
+      <c r="A124" s="37"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="4">
         <v>3</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E124" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F124" s="21"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="49"/>
+      <c r="H124" s="51"/>
+      <c r="I124" s="51"/>
+      <c r="J124" s="51"/>
     </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="19">
+      <c r="A125" s="37"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="4">
         <v>4</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F125" s="21"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="49"/>
+      <c r="H125" s="51"/>
+      <c r="I125" s="51"/>
+      <c r="J125" s="51"/>
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="19">
+      <c r="A126" s="38"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="4">
         <v>5</v>
       </c>
-      <c r="E126" s="19" t="s">
+      <c r="E126" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F126" s="22"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="52"/>
+      <c r="I126" s="52"/>
+      <c r="J126" s="52"/>
     </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
+      <c r="A127" s="36">
         <v>26</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D127" s="19">
+      <c r="D127" s="4">
         <v>1</v>
       </c>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F127" s="20" t="s">
+      <c r="F127" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G127" s="13" t="s">
+      <c r="G127" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H127" s="5"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
+      <c r="H127" s="51"/>
+      <c r="I127" s="53"/>
+      <c r="J127" s="53"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="19">
+      <c r="A128" s="37"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="4">
         <v>2</v>
       </c>
-      <c r="E128" s="19" t="s">
+      <c r="E128" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F128" s="21"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="49"/>
+      <c r="H128" s="51"/>
+      <c r="I128" s="51"/>
+      <c r="J128" s="51"/>
     </row>
     <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="19">
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="4">
         <v>3</v>
       </c>
-      <c r="E129" s="19" t="s">
+      <c r="E129" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F129" s="21"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="51"/>
+      <c r="I129" s="51"/>
+      <c r="J129" s="51"/>
     </row>
     <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="19">
+      <c r="A130" s="37"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="4">
         <v>4</v>
       </c>
-      <c r="E130" s="19" t="s">
+      <c r="E130" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F130" s="21"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="51"/>
+      <c r="I130" s="51"/>
+      <c r="J130" s="51"/>
     </row>
     <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="9"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="19">
+      <c r="A131" s="38"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="4">
         <v>5</v>
       </c>
-      <c r="E131" s="19" t="s">
+      <c r="E131" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F131" s="22"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="50"/>
+      <c r="H131" s="52"/>
+      <c r="I131" s="52"/>
+      <c r="J131" s="52"/>
     </row>
     <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
+      <c r="A132" s="36">
         <v>27</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D132" s="19">
+      <c r="D132" s="4">
         <v>1</v>
       </c>
-      <c r="E132" s="19" t="s">
+      <c r="E132" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F132" s="20" t="s">
+      <c r="F132" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="G132" s="13" t="s">
+      <c r="G132" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H132" s="5"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
+      <c r="H132" s="51"/>
+      <c r="I132" s="53"/>
+      <c r="J132" s="53"/>
     </row>
     <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="19">
+      <c r="A133" s="37"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="4">
         <v>2</v>
       </c>
-      <c r="E133" s="19" t="s">
+      <c r="E133" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F133" s="21"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="49"/>
+      <c r="H133" s="51"/>
+      <c r="I133" s="51"/>
+      <c r="J133" s="51"/>
     </row>
     <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="19">
+      <c r="A134" s="37"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="4">
         <v>3</v>
       </c>
-      <c r="E134" s="19" t="s">
+      <c r="E134" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F134" s="21"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="51"/>
+      <c r="I134" s="51"/>
+      <c r="J134" s="51"/>
     </row>
     <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="19">
+      <c r="A135" s="37"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="4">
         <v>4</v>
       </c>
-      <c r="E135" s="19" t="s">
+      <c r="E135" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F135" s="21"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="51"/>
+      <c r="I135" s="51"/>
+      <c r="J135" s="51"/>
     </row>
     <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="9"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="19">
+      <c r="A136" s="38"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="4">
         <v>5</v>
       </c>
-      <c r="E136" s="19" t="s">
+      <c r="E136" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F136" s="22"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="50"/>
+      <c r="H136" s="52"/>
+      <c r="I136" s="52"/>
+      <c r="J136" s="52"/>
     </row>
     <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="7">
+      <c r="A137" s="36">
         <v>28</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D137" s="19">
+      <c r="D137" s="4">
         <v>1</v>
       </c>
-      <c r="E137" s="19" t="s">
+      <c r="E137" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F137" s="20" t="s">
+      <c r="F137" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="G137" s="13" t="s">
+      <c r="G137" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H137" s="5"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
+      <c r="H137" s="51"/>
+      <c r="I137" s="53"/>
+      <c r="J137" s="53"/>
     </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="19">
+      <c r="A138" s="37"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="4">
         <v>2</v>
       </c>
-      <c r="E138" s="19" t="s">
+      <c r="E138" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F138" s="21"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="49"/>
+      <c r="H138" s="51"/>
+      <c r="I138" s="51"/>
+      <c r="J138" s="51"/>
     </row>
     <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="19">
+      <c r="A139" s="37"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="4">
         <v>3</v>
       </c>
-      <c r="E139" s="19" t="s">
+      <c r="E139" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F139" s="21"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="49"/>
+      <c r="H139" s="51"/>
+      <c r="I139" s="51"/>
+      <c r="J139" s="51"/>
     </row>
     <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="19">
+      <c r="A140" s="37"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="4">
         <v>4</v>
       </c>
-      <c r="E140" s="19" t="s">
+      <c r="E140" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F140" s="21"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="49"/>
+      <c r="H140" s="51"/>
+      <c r="I140" s="51"/>
+      <c r="J140" s="51"/>
     </row>
     <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="9"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="19">
+      <c r="A141" s="38"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="4">
         <v>5</v>
       </c>
-      <c r="E141" s="19" t="s">
+      <c r="E141" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F141" s="22"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
+      <c r="F141" s="47"/>
+      <c r="G141" s="50"/>
+      <c r="H141" s="52"/>
+      <c r="I141" s="52"/>
+      <c r="J141" s="52"/>
     </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4600,6 +4542,210 @@
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="224">
+    <mergeCell ref="J42:J46"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="H37:H41"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="G52:G56"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="H62:H66"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="H57:H61"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="H72:H76"/>
+    <mergeCell ref="I72:I76"/>
+    <mergeCell ref="J72:J76"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="H67:H71"/>
+    <mergeCell ref="I67:I71"/>
+    <mergeCell ref="J67:J71"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="G82:G86"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="J82:J86"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="G77:G81"/>
+    <mergeCell ref="H77:H81"/>
+    <mergeCell ref="I77:I81"/>
+    <mergeCell ref="J77:J81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="F92:F96"/>
+    <mergeCell ref="G92:G96"/>
+    <mergeCell ref="H92:H96"/>
+    <mergeCell ref="I92:I96"/>
+    <mergeCell ref="J92:J96"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="F87:F91"/>
+    <mergeCell ref="G87:G91"/>
+    <mergeCell ref="H87:H91"/>
+    <mergeCell ref="I87:I91"/>
+    <mergeCell ref="J87:J91"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="G102:G106"/>
+    <mergeCell ref="H102:H106"/>
+    <mergeCell ref="I102:I106"/>
+    <mergeCell ref="J102:J106"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="H97:H101"/>
+    <mergeCell ref="I97:I101"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="G112:G116"/>
+    <mergeCell ref="H112:H116"/>
+    <mergeCell ref="I112:I116"/>
+    <mergeCell ref="J112:J116"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="G122:G126"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="J122:J126"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="F117:F121"/>
+    <mergeCell ref="G117:G121"/>
+    <mergeCell ref="H117:H121"/>
+    <mergeCell ref="I117:I121"/>
+    <mergeCell ref="J117:J121"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="F127:F131"/>
+    <mergeCell ref="F122:F126"/>
+    <mergeCell ref="F112:F116"/>
+    <mergeCell ref="F102:F106"/>
     <mergeCell ref="A137:A141"/>
     <mergeCell ref="B137:B141"/>
     <mergeCell ref="C137:C141"/>
@@ -4620,221 +4766,17 @@
     <mergeCell ref="H132:H136"/>
     <mergeCell ref="I132:I136"/>
     <mergeCell ref="J132:J136"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="F127:F131"/>
-    <mergeCell ref="F122:F126"/>
-    <mergeCell ref="G122:G126"/>
-    <mergeCell ref="H122:H126"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="J122:J126"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="F117:F121"/>
-    <mergeCell ref="G117:G121"/>
-    <mergeCell ref="H117:H121"/>
-    <mergeCell ref="I117:I121"/>
-    <mergeCell ref="J117:J121"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="F112:F116"/>
-    <mergeCell ref="G112:G116"/>
-    <mergeCell ref="H112:H116"/>
-    <mergeCell ref="I112:I116"/>
-    <mergeCell ref="J112:J116"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="F102:F106"/>
-    <mergeCell ref="G102:G106"/>
-    <mergeCell ref="H102:H106"/>
-    <mergeCell ref="I102:I106"/>
-    <mergeCell ref="J102:J106"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="H97:H101"/>
-    <mergeCell ref="I97:I101"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="F92:F96"/>
-    <mergeCell ref="G92:G96"/>
-    <mergeCell ref="H92:H96"/>
-    <mergeCell ref="I92:I96"/>
-    <mergeCell ref="J92:J96"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="F87:F91"/>
-    <mergeCell ref="G87:G91"/>
-    <mergeCell ref="H87:H91"/>
-    <mergeCell ref="I87:I91"/>
-    <mergeCell ref="J87:J91"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="F82:F86"/>
-    <mergeCell ref="G82:G86"/>
-    <mergeCell ref="H82:H86"/>
-    <mergeCell ref="I82:I86"/>
-    <mergeCell ref="J82:J86"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="G77:G81"/>
-    <mergeCell ref="H77:H81"/>
-    <mergeCell ref="I77:I81"/>
-    <mergeCell ref="J77:J81"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="H72:H76"/>
-    <mergeCell ref="I72:I76"/>
-    <mergeCell ref="J72:J76"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="G67:G71"/>
-    <mergeCell ref="H67:H71"/>
-    <mergeCell ref="I67:I71"/>
-    <mergeCell ref="J67:J71"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="H62:H66"/>
-    <mergeCell ref="I62:I66"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="H57:H61"/>
-    <mergeCell ref="I57:I61"/>
-    <mergeCell ref="J57:J61"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="G52:G56"/>
-    <mergeCell ref="H52:H56"/>
-    <mergeCell ref="I52:I56"/>
-    <mergeCell ref="J52:J56"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="J22:J26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="H37:H41"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="J37:J41"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="J42:J46"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="I42:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -4849,196 +4791,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="51" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="52" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="53" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="43"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
